--- a/script/result_llm_tranform/px4_docs/px4_return/result.xlsx
+++ b/script/result_llm_tranform/px4_docs/px4_return/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowWidth="26860" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
   <si>
     <t>index</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G(R → F(S </t>
     </r>
     <r>
@@ -116,6 +122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G(R → ((A U SL) → FL → X(D U (W </t>
     </r>
     <r>
@@ -181,6 +193,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'In this return type vehicles ascend to a safe altitude above obstructions if needed, fly directly to the closest safe landing point (a rally point or the home position), descend to the "descent altitude", wait briefly, and then land.', 'formula': '(¬O → (F(S </t>
     </r>
     <r>
@@ -240,6 +258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'In this return type vehicles ascend to a safe altitude above obstructions if needed, fly directly to the closest safe landing point (a rally point or the home position), descend to the "descent altitude", wait briefly, and then land.', 'formula': 'F(A </t>
     </r>
     <r>
@@ -326,6 +350,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G(A </t>
     </r>
     <r>
@@ -367,6 +397,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G(M → (GPS </t>
     </r>
     <r>
@@ -394,6 +430,15 @@
 local position inference.</t>
   </si>
   <si>
+    <t>{'sentence': '2.Mode requires a global 3d position estimate (from GPS or inferred from a local position).', 'formula': 'G(P)', 'explanation': 'Here, P represents the availability of a global 3D position estimate. The formula ensures that a global position estimate is always required for this mode.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'Mode requires a global 3d position estimate (from GPS or inferred from a local position).', 'formula': 'G(P)', 'explanation': 'P represents the availability of a global 3D position estimate. The formula ensures this requirement is always met.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'Mode requires a global 3d position estimate (from GPS or inferred from a local position).', 'formula': 'G(M → P)', 'explanation': 'This formula states that globally (at all times), if the mode (M) is active, then a global 3D position estimate (P) must be available. This captures the continuous requirement for position data when the mode is engaged.'}</t>
+  </si>
+  <si>
     <t>18-18</t>
   </si>
   <si>
@@ -434,6 +479,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'Flying vehicles will failsafe if they lose the position estimate.', 'formula': 'G((M </t>
     </r>
     <r>
@@ -490,6 +541,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': '4.Mode prevents arming (vehicle must be armed when switching to this mode).', 'formula': 'G((¬A </t>
     </r>
     <r>
@@ -513,6 +570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'Mode prevents arming (vehicle must be armed when switching to this mode).', 'formula': 'G((¬A </t>
     </r>
     <r>
@@ -548,6 +611,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>{'sentence': 'RC control switches can be used to change flight modes on any vehicle.', 'formula': 'G(R → F(M</t>
     </r>
     <r>
@@ -721,6 +790,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G((S </t>
     </r>
     <r>
@@ -747,6 +822,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'RC stick movement will by default change the vehicle to Position mode unless handling a critical battery failsafe.', 'formula': 'G((S </t>
     </r>
     <r>
@@ -812,6 +893,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G((I </t>
     </r>
     <r>
@@ -838,6 +925,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'The vehicle maintains its initial altitude if that is higher than the minimum return altitude.', 'formula': 'I </t>
     </r>
     <r>
@@ -861,6 +954,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'The vehicle maintains its initial altitude if that is higher than the minimum return altitude.', 'formula': '(I </t>
     </r>
     <r>
@@ -884,6 +983,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'The vehicle maintains its initial altitude if that is higher than the minimum return altitude.', 'formula': 'G((I </t>
     </r>
     <r>
@@ -919,6 +1024,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': '2.Flies via a direct constant-altitude path to the safe landing point, which will be the nearest of any rally points and the home position.', 'formula': 'F(S </t>
     </r>
     <r>
@@ -960,6 +1071,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'Flies via a direct constant-altitude path to the safe landing point, which will be the nearest of any rally points and the home position.', 'formula': 'F(D </t>
     </r>
     <r>
@@ -983,6 +1100,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'Flies via a direct constant-altitude path to the safe landing point, which will be the nearest of any rally points and the home position.', 'formula': 'F(D </t>
     </r>
     <r>
@@ -1054,6 +1177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'On arrival at its destination, it rapidly descends to the "descent altitude" (RTL_DESCEND_ALT).', 'formula': 'F(D </t>
     </r>
     <r>
@@ -1077,6 +1206,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'On arrival at its destination, it rapidly descends to the "descent altitude" (RTL_DESCEND_ALT).', 'formula': 'F(A </t>
     </r>
     <r>
@@ -1118,6 +1253,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'It waits for a configurable time (RTL_LAND_DELAY), which may be used for deploying landing gear.', 'formula': 'F(W </t>
     </r>
     <r>
@@ -1171,6 +1312,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>G(R → ((H &gt; A )</t>
     </r>
     <r>
@@ -1197,6 +1344,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'By default the _minimum return altitude_ is set using RTL_RETURN_ALT, and the vehicle will just return at the higher of RTL_RETURN_ALT or the initial vehicle altitude.', 'formula': 'G(RTL_RETURN_ALT </t>
     </r>
     <r>
@@ -1220,6 +1373,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'By default the _minimum return altitude_ is set using RTL_RETURN_ALT, and the vehicle will just return at the higher of RTL_RETURN_ALT or the initial vehicle altitude.', 'formula': 'G((R </t>
     </r>
     <r>
@@ -1243,6 +1402,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'By default the _minimum return altitude_ is set using RTL_RETURN_ALT, and the vehicle will just return at the higher of RTL_RETURN_ALT or the initial vehicle altitude.', 'formula': 'G(R → (H </t>
     </r>
     <r>
@@ -1275,6 +1440,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G((R </t>
     </r>
     <r>
@@ -1337,6 +1508,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'The cone affects the minimum return altitude if return mode is triggered within the cylinder defined by the maximum cone radius and RTL_RETURN_ALT: outside this cylinder RTL_RETURN_ALT is used.', 'formula': 'G((R </t>
     </r>
     <r>
@@ -1414,6 +1591,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'The cone affects the minimum return altitude if return mode is triggered within the cylinder defined by the maximum cone radius and RTL_RETURN_ALT: outside this cyclinder RTL_RETURN_ALT is used.', 'formula': 'G((R </t>
     </r>
     <r>
@@ -1479,6 +1662,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G(M → (I </t>
     </r>
     <r>
@@ -1505,6 +1694,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'Inside the code the minimum return altitude is the intersection of the vehicle position with the cone, or RTL_DESCEND_ALT (whichever is higher).', 'formula': 'G(V </t>
     </r>
     <r>
@@ -1549,6 +1744,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'Inside the code the minimum return altitude is the intersection of the vehicle position with the cone, or RTL_DESCEND_ALT (whichever is higher).', 'formula': 'G(P → (N </t>
     </r>
     <r>
@@ -1578,6 +1779,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">G((B </t>
     </r>
     <r>
@@ -1604,6 +1811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'In other words, the vehicle must always ascend to at least RTL_DESCEND_ALT if below that value.', 'formula': 'G(V &lt; RTL_DESCEND_ALT → F(A </t>
     </r>
     <r>
@@ -1630,6 +1843,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'In other words, the vehicle must always ascend to at least RTL_DESCEND_ALT if below that value.', 'formula': 'G((B </t>
     </r>
     <r>
@@ -1652,16 +1871,13 @@
     </r>
   </si>
   <si>
-    <t>{'sentence': '2.Mode requires a global 3d position estimate (from GPS or inferred from a local position).', 'formula': 'G(P)', 'explanation': 'Here, P represents the availability of a global 3D position estimate. The formula ensures that a global position estimate is always required for this mode.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Mode requires a global 3d position estimate (from GPS or inferred from a local position).', 'formula': 'G(P)', 'explanation': 'P represents the availability of a global 3D position estimate. The formula ensures this requirement is always met.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Mode requires a global 3d position estimate (from GPS or inferred from a local position).', 'formula': 'G(M → P)', 'explanation': 'This formula states that globally (at all times), if the mode (M) is active, then a global 3D position estimate (P) must be available. This captures the continuous requirement for position data when the mode is engaged.'}</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'The minimum return altitude can be further configured using RTL_CONE_ANG, which together with RTL_RETURN_ALT defines a half cone centered around the destination landing point.', 'formula': 'G(RTL_CONE_ANG </t>
     </r>
     <r>
@@ -1688,6 +1904,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'The minimum return altitude can be further configured using RTL_CONE_ANG, which together with RTL_RETURN_ALT defines a half cone centered around the destination landing point.', 'formula': 'G(C → (M </t>
     </r>
     <r>
@@ -1761,7 +1983,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1779,13 +2001,6 @@
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2262,158 +2477,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2764,10 +2976,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2832,38 +3044,38 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2871,40 +3083,40 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2912,40 +3124,40 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2953,120 +3165,120 @@
       <c r="A5" s="2">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
+      <c r="M5" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" ht="118" spans="1:13">
+    <row r="6" ht="202" spans="1:13">
       <c r="A6" s="2">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>8</v>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="185" spans="1:13">
       <c r="A7" s="2">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>45</v>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
@@ -3076,120 +3288,120 @@
       <c r="A8" s="2">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:13">
       <c r="A9" s="2">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="202" spans="1:13">
       <c r="A10" s="2">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>64</v>
+      <c r="J10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>65</v>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -3199,122 +3411,122 @@
       <c r="A11" s="2">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>8</v>
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="219" spans="1:13">
       <c r="A12" s="2">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="118" spans="1:13">
       <c r="A13" s="2">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3322,40 +3534,40 @@
       <c r="A14" s="2">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3363,656 +3575,677 @@
       <c r="A15" s="2">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="202" spans="1:13">
       <c r="A16" s="2">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>8</v>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="236" spans="1:13">
       <c r="A17" s="2">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="252" spans="1:13">
       <c r="A18" s="2">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="303" spans="1:13">
       <c r="A19" s="2">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>8</v>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="185" spans="1:13">
       <c r="A20" s="2">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="303" spans="1:13">
       <c r="A21" s="2">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="404" spans="1:13">
       <c r="A22" s="2">
         <v>24</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="303" spans="1:13">
       <c r="A23" s="2">
         <v>25</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="269" spans="1:13">
       <c r="A24" s="2">
         <v>26</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:13">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="3" t="s">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:13">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3" t="s">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:13">
-      <c r="A27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3" t="s">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" ht="202" spans="1:13">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M28" s="3" t="s">
+    <row r="28" ht="17" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" ht="320" spans="1:13">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="185" spans="1:13">
-      <c r="A30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>8</v>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="9:13">
+      <c r="I31">
+        <f>COUNTIF(I2:I30,1)</f>
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <f>COUNTIF(J2:J30,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>COUNTIF(K2:K30,1)</f>
+        <v>15</v>
+      </c>
+      <c r="L31">
+        <f>COUNTIF(L2:L30,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>COUNTIF(M2:M30,1)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="9:13">
+      <c r="I32">
+        <f>COUNTIF(I2:I30,0)</f>
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <f>COUNTIF(K2:K30,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f>COUNTIF(M2:M30,0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/script/result_llm_tranform/px4_docs/px4_return/result.xlsx
+++ b/script/result_llm_tranform/px4_docs/px4_return/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="15540"/>
+    <workbookView windowWidth="26860" windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -1933,6 +1933,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{'sentence': 'The cone angle allows a lower minimum return altitude when the return mode is executed close to the destination.', 'formula': 'G((R </t>
     </r>
     <r>
@@ -2978,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3163,7 +3169,7 @@
     </row>
     <row r="5" ht="236" spans="1:13">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
@@ -3204,7 +3210,7 @@
     </row>
     <row r="6" ht="202" spans="1:13">
       <c r="A6" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -3245,7 +3251,7 @@
     </row>
     <row r="7" ht="185" spans="1:13">
       <c r="A7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
@@ -3286,7 +3292,7 @@
     </row>
     <row r="8" ht="185" spans="1:13">
       <c r="A8" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -3327,7 +3333,7 @@
     </row>
     <row r="9" ht="152" spans="1:13">
       <c r="A9" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="10" ht="202" spans="1:13">
       <c r="A10" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -3409,7 +3415,7 @@
     </row>
     <row r="11" ht="202" spans="1:13">
       <c r="A11" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
@@ -3450,7 +3456,7 @@
     </row>
     <row r="12" ht="219" spans="1:13">
       <c r="A12" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
@@ -3491,7 +3497,7 @@
     </row>
     <row r="13" ht="118" spans="1:13">
       <c r="A13" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -3532,7 +3538,7 @@
     </row>
     <row r="14" ht="51" spans="1:13">
       <c r="A14" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -3573,7 +3579,7 @@
     </row>
     <row r="15" ht="185" spans="1:13">
       <c r="A15" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -3614,7 +3620,7 @@
     </row>
     <row r="16" ht="202" spans="1:13">
       <c r="A16" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -3655,7 +3661,7 @@
     </row>
     <row r="17" ht="236" spans="1:13">
       <c r="A17" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -3696,7 +3702,7 @@
     </row>
     <row r="18" ht="252" spans="1:13">
       <c r="A18" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -3737,7 +3743,7 @@
     </row>
     <row r="19" ht="303" spans="1:13">
       <c r="A19" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -3778,7 +3784,7 @@
     </row>
     <row r="20" ht="185" spans="1:13">
       <c r="A20" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -3819,7 +3825,7 @@
     </row>
     <row r="21" ht="303" spans="1:13">
       <c r="A21" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -3860,7 +3866,7 @@
     </row>
     <row r="22" ht="404" spans="1:13">
       <c r="A22" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>133</v>
@@ -3901,7 +3907,7 @@
     </row>
     <row r="23" ht="303" spans="1:13">
       <c r="A23" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>133</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="24" ht="269" spans="1:13">
       <c r="A24" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>133</v>

--- a/script/result_llm_tranform/px4_docs/px4_return/result.xlsx
+++ b/script/result_llm_tranform/px4_docs/px4_return/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="15060"/>
+    <workbookView windowWidth="30760" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -2984,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4202,9 +4202,7 @@
       <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
         <v>157</v>
       </c>
@@ -4243,7 +4241,7 @@
     <row r="32" spans="9:13">
       <c r="I32">
         <f>COUNTIF(I2:I30,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <f>COUNTIF(K2:K30,0)</f>
